--- a/data/trans_bre/P23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,09; -15,3</t>
+          <t>-25,46; -15,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,56; -9,01</t>
+          <t>-18,95; -8,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,09; -7,54</t>
+          <t>-16,99; -6,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,59; -5,19</t>
+          <t>-14,52; -5,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,32; -37,31</t>
+          <t>-55,28; -37,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,23; -26,01</t>
+          <t>-48,44; -25,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,39; -21,53</t>
+          <t>-42,99; -19,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,68; -20,83</t>
+          <t>-46,83; -20,77</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -13,39</t>
+          <t>-21,35; -12,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,92; -5,28</t>
+          <t>-13,8; -5,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -2,5</t>
+          <t>-10,85; -2,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 8,53</t>
+          <t>-7,72; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,83; -35,08</t>
+          <t>-50,9; -33,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,91; -14,73</t>
+          <t>-35,01; -14,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -8,03</t>
+          <t>-31,16; -7,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 76,17</t>
+          <t>-29,72; 79,88</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -7,02</t>
+          <t>-17,65; -7,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -3,81</t>
+          <t>-13,76; -3,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -7,23</t>
+          <t>-17,25; -6,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -5,18</t>
+          <t>-21,02; -4,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,75; -20,68</t>
+          <t>-44,93; -21,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,41; -10,97</t>
+          <t>-34,53; -10,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,77; -18,99</t>
+          <t>-39,92; -17,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,43; -19,33</t>
+          <t>-67,45; -18,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,55; -7,83</t>
+          <t>-16,08; -7,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -4,57</t>
+          <t>-12,27; -4,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -1,71</t>
+          <t>-9,21; -1,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -1,94</t>
+          <t>-10,3; -1,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,72; -21,06</t>
+          <t>-38,56; -20,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,01; -13,73</t>
+          <t>-32,44; -11,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,46; -6,2</t>
+          <t>-28,75; -3,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,89; -9,19</t>
+          <t>-40,05; -9,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -13,24</t>
+          <t>-17,45; -12,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -7,58</t>
+          <t>-12,09; -7,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -6,44</t>
+          <t>-10,82; -6,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -1,03</t>
+          <t>-9,84; -1,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,89; -34,1</t>
+          <t>-42,77; -33,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -21,27</t>
+          <t>-31,88; -21,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -19,01</t>
+          <t>-29,76; -18,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,85; -8,3</t>
+          <t>-38,09; -8,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
